--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_3592.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_3592.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3592</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Richard Douglas Berrington</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2841</t>
+          <t>2841</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2843</t>
+          <t>2843</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -596,7 +661,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>29/07/2008</t>
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2850</t>
+          <t>2850</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2851</t>
+          <t>2851</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -696,7 +760,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>12/08/2008</t>
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2855</t>
+          <t>2855</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3006</t>
+          <t>3006</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3121</t>
+          <t>3121</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3127</t>
+          <t>3127</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3137</t>
+          <t>3137</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -964,7 +1027,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3139</t>
+          <t>3139</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1016,7 +1079,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3143</t>
+          <t>3143</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1068,7 +1131,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3146</t>
+          <t>3146</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1120,7 +1183,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3149</t>
+          <t>3149</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1172,7 +1235,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3154</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1224,7 +1287,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3164</t>
+          <t>3164</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1276,7 +1339,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3166</t>
+          <t>3166</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1328,7 +1391,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3299</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1380,7 +1443,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3301</t>
+          <t>3301</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1432,7 +1495,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3307</t>
+          <t>3307</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1484,7 +1547,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3308</t>
+          <t>3308</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1536,7 +1599,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3428</t>
+          <t>3428</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1588,7 +1651,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3482</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1640,7 +1703,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3483</t>
+          <t>3483</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1692,7 +1755,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3497</t>
+          <t>3497</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1744,7 +1807,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3522</t>
+          <t>3522</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1796,7 +1859,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3523</t>
+          <t>3523</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1848,7 +1911,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3552</t>
+          <t>3552</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1900,7 +1963,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3554</t>
+          <t>3554</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1952,7 +2015,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3556</t>
+          <t>3556</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2004,7 +2067,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3604</t>
+          <t>3604</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2056,7 +2119,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3611</t>
+          <t>3611</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2108,7 +2171,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3613</t>
+          <t>3613</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2160,7 +2223,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3674</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2212,7 +2275,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3675</t>
+          <t>3675</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2252,7 +2315,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>12/09/2014</t>
@@ -2260,7 +2322,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3676</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2312,7 +2374,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3721</t>
+          <t>3721</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2364,7 +2426,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3724</t>
+          <t>3724</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2416,7 +2478,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3725</t>
+          <t>3725</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2456,7 +2518,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>19/01/2015</t>
@@ -2464,7 +2525,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3733</t>
+          <t>3733</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2516,7 +2577,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3753</t>
+          <t>3753</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2568,7 +2629,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3761</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2620,7 +2681,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3764</t>
+          <t>3764</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2672,7 +2733,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3774</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2724,7 +2785,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3782</t>
+          <t>3782</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2776,7 +2837,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3787</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2828,7 +2889,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3880</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2868,7 +2929,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>04/07/2016</t>
@@ -2876,7 +2936,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3912</t>
+          <t>3912</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2928,7 +2988,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2980,7 +3040,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3919</t>
+          <t>3919</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3032,7 +3092,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3920</t>
+          <t>3920</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3084,7 +3144,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3933</t>
+          <t>3933</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3136,7 +3196,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3934</t>
+          <t>3934</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3188,7 +3248,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3980</t>
+          <t>3980</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3240,7 +3300,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4048</t>
+          <t>4048</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3292,7 +3352,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4049</t>
+          <t>4049</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3344,7 +3404,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4077</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3396,7 +3456,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4078</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3448,7 +3508,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4090</t>
+          <t>4090</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3500,7 +3560,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4091</t>
+          <t>4091</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3552,7 +3612,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4111</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3604,7 +3664,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4113</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3656,7 +3716,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4118</t>
+          <t>4118</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3708,7 +3768,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4120</t>
+          <t>4120</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3760,7 +3820,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3812,7 +3872,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4142</t>
+          <t>4142</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3864,7 +3924,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4153</t>
+          <t>4153</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3916,7 +3976,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4155</t>
+          <t>4155</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3968,7 +4028,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4020,7 +4080,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4161</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4072,7 +4132,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4124,7 +4184,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4290</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4176,7 +4236,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4363</t>
+          <t>4363</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4228,7 +4288,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4364</t>
+          <t>4364</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4280,7 +4340,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4365</t>
+          <t>4365</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4332,7 +4392,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4366</t>
+          <t>4366</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4384,7 +4444,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4381</t>
+          <t>4381</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4436,7 +4496,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4384</t>
+          <t>4384</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4488,7 +4548,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4386</t>
+          <t>4386</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4540,7 +4600,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4461</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4592,7 +4652,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4462</t>
+          <t>4462</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4644,7 +4704,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4510</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4696,7 +4756,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4512</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4748,7 +4808,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4513</t>
+          <t>4513</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4800,7 +4860,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4515</t>
+          <t>4515</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4852,7 +4912,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4569</t>
+          <t>4569</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4904,7 +4964,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4570</t>
+          <t>4570</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4956,7 +5016,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4572</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5008,7 +5068,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4573</t>
+          <t>4573</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5060,7 +5120,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4575</t>
+          <t>4575</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5112,7 +5172,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4576</t>
+          <t>4576</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5164,7 +5224,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4578</t>
+          <t>4578</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5216,7 +5276,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4581</t>
+          <t>4581</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5268,7 +5328,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4604</t>
+          <t>4604</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5320,7 +5380,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4610</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5372,7 +5432,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4612</t>
+          <t>4612</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5424,7 +5484,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4617</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5476,7 +5536,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4625</t>
+          <t>4625</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5528,7 +5588,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4677</t>
+          <t>4677</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5580,7 +5640,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4681</t>
+          <t>4681</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5632,7 +5692,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4680</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5684,7 +5744,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4684</t>
+          <t>4684</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5724,7 +5784,6 @@
           <t>102</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>15/02/2023</t>
@@ -5732,7 +5791,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4702</t>
+          <t>4702</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5784,7 +5843,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4703</t>
+          <t>4703</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5836,7 +5895,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4705</t>
+          <t>4705</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5888,7 +5947,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4706</t>
+          <t>4706</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5927,7 +5986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5949,7 +6008,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -5986,7 +6045,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2841</t>
+          <t>2841</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6023,7 +6082,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2850</t>
+          <t>2850</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6060,7 +6119,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2851</t>
+          <t>2851</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -6097,7 +6156,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2855</t>
+          <t>2855</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -6134,7 +6193,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3006</t>
+          <t>3006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -6171,7 +6230,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3121</t>
+          <t>3121</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -6208,7 +6267,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3127</t>
+          <t>3127</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -6245,7 +6304,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3137</t>
+          <t>3137</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6282,7 +6341,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3139</t>
+          <t>3139</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -6319,7 +6378,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3143</t>
+          <t>3143</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6356,7 +6415,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3146</t>
+          <t>3146</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -6393,7 +6452,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3149</t>
+          <t>3149</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -6430,7 +6489,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3154</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -6467,7 +6526,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3164</t>
+          <t>3164</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -6504,7 +6563,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3166</t>
+          <t>3166</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -6541,7 +6600,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3299</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -6578,7 +6637,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3301</t>
+          <t>3301</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -6615,7 +6674,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3307</t>
+          <t>3307</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -6652,7 +6711,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3308</t>
+          <t>3308</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6689,7 +6748,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3428</t>
+          <t>3428</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -6726,7 +6785,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3482</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -6763,7 +6822,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3483</t>
+          <t>3483</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -6800,7 +6859,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3552</t>
+          <t>3552</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -6837,7 +6896,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3604</t>
+          <t>3604</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -6874,7 +6933,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3674</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6911,7 +6970,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3675</t>
+          <t>3675</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6948,7 +7007,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3676</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6985,7 +7044,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3721</t>
+          <t>3721</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -7022,7 +7081,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3724</t>
+          <t>3724</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -7059,7 +7118,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3761</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -7096,7 +7155,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3764</t>
+          <t>3764</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -7133,7 +7192,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3774</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -7170,7 +7229,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3782</t>
+          <t>3782</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7207,7 +7266,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3880</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7244,7 +7303,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3920</t>
+          <t>3920</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7281,7 +7340,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4048</t>
+          <t>4048</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7318,7 +7377,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4049</t>
+          <t>4049</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7355,7 +7414,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4090</t>
+          <t>4090</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7392,7 +7451,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4118</t>
+          <t>4118</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -7429,7 +7488,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4120</t>
+          <t>4120</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -7466,7 +7525,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -7503,7 +7562,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4153</t>
+          <t>4153</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -7540,7 +7599,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -7577,7 +7636,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4161</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -7614,7 +7673,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -7651,7 +7710,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4290</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -7688,7 +7747,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4363</t>
+          <t>4363</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -7725,7 +7784,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4364</t>
+          <t>4364</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -7762,7 +7821,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4365</t>
+          <t>4365</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -7799,7 +7858,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4381</t>
+          <t>4381</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -7836,7 +7895,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4386</t>
+          <t>4386</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -7873,7 +7932,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4461</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -7910,7 +7969,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4462</t>
+          <t>4462</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -7947,7 +8006,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4513</t>
+          <t>4513</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -7984,7 +8043,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4570</t>
+          <t>4570</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -8021,7 +8080,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4573</t>
+          <t>4573</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -8058,7 +8117,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4575</t>
+          <t>4575</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -8095,7 +8154,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4581</t>
+          <t>4581</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -8132,7 +8191,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4604</t>
+          <t>4604</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -8169,7 +8228,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4610</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -8206,7 +8265,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4612</t>
+          <t>4612</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -8243,7 +8302,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4705</t>
+          <t>4705</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -8269,6 +8328,613 @@
       <c r="G63" t="inlineStr">
         <is>
           <t>0/9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4570</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12.56%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4572</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>19.51%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4573</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4575</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>11.65%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4576</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>35.67%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4578</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5.99%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4581</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8.77%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4604</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4610</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2.08%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4612</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4617</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3.08%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3.92%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4677</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>16.90%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4681</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2.10%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4680</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9.62%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4684</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>9.92%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4702</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4703</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6.93%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4705</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>14.48%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4706</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_3592.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_3592.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8448,10 +8449,6 @@
           <t>4573</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8657,7 +8654,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8853,9 +8849,6 @@
       <c r="B18" t="n">
         <v>8</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8928,15 +8921,299 @@
           <t>4706</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4158</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4161</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4165</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4290</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4363</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4364</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4365</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4381</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4386</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4461</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4462</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4513</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4570</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4573</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4575</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4581</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4604</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4610</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4612</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4705</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_3592.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_3592.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -662,6 +660,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>29/07/2008</t>
@@ -761,6 +760,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>12/08/2008</t>
@@ -2316,6 +2316,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>12/09/2014</t>
@@ -2519,6 +2520,7 @@
           <t>39</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>19/01/2015</t>
@@ -2930,6 +2932,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>04/07/2016</t>
@@ -2942,7 +2945,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5785,6 +5788,7 @@
           <t>102</t>
         </is>
       </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>15/02/2023</t>
@@ -8335,887 +8339,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4570</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>12.56%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4572</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>19.51%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4573</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4575</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>11.65%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4576</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>35.67%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4578</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.99%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4581</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>8.77%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4604</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.39%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4610</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.08%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4612</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4617</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.08%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4625</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.92%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4677</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>16.90%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4681</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.10%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4680</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>9.62%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4684</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>9.92%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4702</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>8</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4703</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>6.93%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4705</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>14.48%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4706</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4158</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4161</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4165</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4290</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4363</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4364</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4365</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4381</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4386</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4461</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4462</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4513</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4570</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4573</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4575</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4581</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4604</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4610</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4612</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4705</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>